--- a/data/pca/factorExposure/factorExposure_2016-02-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01479830221578109</v>
+        <v>-0.01696667711572199</v>
       </c>
       <c r="C2">
-        <v>0.05851311450976818</v>
+        <v>0.04493001304548222</v>
       </c>
       <c r="D2">
-        <v>-0.05280072412074414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08105687462382016</v>
+      </c>
+      <c r="E2">
+        <v>0.1229830948106973</v>
+      </c>
+      <c r="F2">
+        <v>0.03819743367891956</v>
+      </c>
+      <c r="G2">
+        <v>0.02743196087236568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03809685602149514</v>
+        <v>-0.02358786420114579</v>
       </c>
       <c r="C3">
-        <v>0.12452292973133</v>
+        <v>0.06626090116778383</v>
       </c>
       <c r="D3">
-        <v>-0.05850187153930823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07463943464016172</v>
+      </c>
+      <c r="E3">
+        <v>0.08851565648603228</v>
+      </c>
+      <c r="F3">
+        <v>-0.0490524398393405</v>
+      </c>
+      <c r="G3">
+        <v>0.1088074801100947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06193210171035629</v>
+        <v>-0.06214652092621488</v>
       </c>
       <c r="C4">
-        <v>0.06248011218100308</v>
+        <v>0.06335550842688552</v>
       </c>
       <c r="D4">
-        <v>-0.04394571589253075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08114967964005454</v>
+      </c>
+      <c r="E4">
+        <v>0.1052145508934139</v>
+      </c>
+      <c r="F4">
+        <v>-0.0324149451141393</v>
+      </c>
+      <c r="G4">
+        <v>-0.04495398025025974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04374075061786339</v>
+        <v>-0.04091896751124644</v>
       </c>
       <c r="C6">
-        <v>0.03631247239802524</v>
+        <v>0.0279457904027269</v>
       </c>
       <c r="D6">
-        <v>-0.0390941568568604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.08163685191760264</v>
+      </c>
+      <c r="E6">
+        <v>0.09794833798428661</v>
+      </c>
+      <c r="F6">
+        <v>-0.02391260264059397</v>
+      </c>
+      <c r="G6">
+        <v>0.001314335818188936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0314911451304366</v>
+        <v>-0.0235278188951451</v>
       </c>
       <c r="C7">
-        <v>0.03382045802229298</v>
+        <v>0.0344084080425819</v>
       </c>
       <c r="D7">
-        <v>-0.02085181345992375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.06457165108985911</v>
+      </c>
+      <c r="E7">
+        <v>0.08591357084939878</v>
+      </c>
+      <c r="F7">
+        <v>-0.004132647008140667</v>
+      </c>
+      <c r="G7">
+        <v>-0.075010050943965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01092210368587266</v>
+        <v>-0.008985873274793091</v>
       </c>
       <c r="C8">
-        <v>0.04564569588435367</v>
+        <v>0.03774455098003888</v>
       </c>
       <c r="D8">
-        <v>-0.03412850404327641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.05200529654980478</v>
+      </c>
+      <c r="E8">
+        <v>0.07008223142102975</v>
+      </c>
+      <c r="F8">
+        <v>-0.0163205266361221</v>
+      </c>
+      <c r="G8">
+        <v>0.007549767961258783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0420426722787092</v>
+        <v>-0.04458673965087528</v>
       </c>
       <c r="C9">
-        <v>0.04376513023726214</v>
+        <v>0.04982844722698123</v>
       </c>
       <c r="D9">
-        <v>-0.03737703204433603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06805205599509419</v>
+      </c>
+      <c r="E9">
+        <v>0.08729214962760702</v>
+      </c>
+      <c r="F9">
+        <v>-0.008706910839276459</v>
+      </c>
+      <c r="G9">
+        <v>-0.04857843206596611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07860404144147244</v>
+        <v>-0.1038643341481419</v>
       </c>
       <c r="C10">
-        <v>-0.1869639729804989</v>
+        <v>-0.2005005256634535</v>
       </c>
       <c r="D10">
-        <v>-0.00943060447597464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005051305122259976</v>
+      </c>
+      <c r="E10">
+        <v>0.03923523649779069</v>
+      </c>
+      <c r="F10">
+        <v>0.00173925687765436</v>
+      </c>
+      <c r="G10">
+        <v>-0.0335556822616861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04527457119829233</v>
+        <v>-0.03858683119298282</v>
       </c>
       <c r="C11">
-        <v>0.05046078497109692</v>
+        <v>0.04743020291508013</v>
       </c>
       <c r="D11">
-        <v>-0.0307251629179018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04583119825984426</v>
+      </c>
+      <c r="E11">
+        <v>0.03776704822971451</v>
+      </c>
+      <c r="F11">
+        <v>-0.009420521948316761</v>
+      </c>
+      <c r="G11">
+        <v>-0.0486418584271602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04879293399962838</v>
+        <v>-0.04103324572145397</v>
       </c>
       <c r="C12">
-        <v>0.0455941335068257</v>
+        <v>0.04547297960700328</v>
       </c>
       <c r="D12">
-        <v>-0.009550402936646765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03844308549772764</v>
+      </c>
+      <c r="E12">
+        <v>0.04910510394735852</v>
+      </c>
+      <c r="F12">
+        <v>-0.00188489764177082</v>
+      </c>
+      <c r="G12">
+        <v>-0.04342816142474196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01779045760621339</v>
+        <v>-0.01691672071295653</v>
       </c>
       <c r="C13">
-        <v>0.05302544941396279</v>
+        <v>0.04276722229213198</v>
       </c>
       <c r="D13">
-        <v>-0.0227622195121569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.07555438188043312</v>
+      </c>
+      <c r="E13">
+        <v>0.1312176519011265</v>
+      </c>
+      <c r="F13">
+        <v>-0.01645043567805773</v>
+      </c>
+      <c r="G13">
+        <v>-0.0559110869602797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01689052547508787</v>
+        <v>-0.009610901922574763</v>
       </c>
       <c r="C14">
-        <v>0.02991987786774576</v>
+        <v>0.02906153038365175</v>
       </c>
       <c r="D14">
-        <v>-0.013104890846808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04902550625129239</v>
+      </c>
+      <c r="E14">
+        <v>0.08193269909088848</v>
+      </c>
+      <c r="F14">
+        <v>0.01496810106802858</v>
+      </c>
+      <c r="G14">
+        <v>-0.04426662737608824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0005432050169336379</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00648986805481018</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0119431275088247</v>
+      </c>
+      <c r="E15">
+        <v>0.01286366676111734</v>
+      </c>
+      <c r="F15">
+        <v>-0.0002256008365026267</v>
+      </c>
+      <c r="G15">
+        <v>0.0008415359218309383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04440383923950809</v>
+        <v>-0.03776292783884379</v>
       </c>
       <c r="C16">
-        <v>0.04755721401219613</v>
+        <v>0.0449042924757394</v>
       </c>
       <c r="D16">
-        <v>-0.01851306637663747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04077723540001095</v>
+      </c>
+      <c r="E16">
+        <v>0.05245773326366091</v>
+      </c>
+      <c r="F16">
+        <v>0.00663602391870445</v>
+      </c>
+      <c r="G16">
+        <v>-0.03754139781711156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02575559257750806</v>
+        <v>-0.01802923875284685</v>
       </c>
       <c r="C19">
-        <v>0.05712968087176003</v>
+        <v>0.04314209676332902</v>
       </c>
       <c r="D19">
-        <v>-0.08407963305152799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1028735718467067</v>
+      </c>
+      <c r="E19">
+        <v>0.1247401090041624</v>
+      </c>
+      <c r="F19">
+        <v>0.01466482840234062</v>
+      </c>
+      <c r="G19">
+        <v>0.001794568215043201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02339236672925244</v>
+        <v>-0.01830321197541584</v>
       </c>
       <c r="C20">
-        <v>0.04839350342750071</v>
+        <v>0.04094938152862283</v>
       </c>
       <c r="D20">
-        <v>-0.02112046627711883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.05642994139861333</v>
+      </c>
+      <c r="E20">
+        <v>0.09807787750283627</v>
+      </c>
+      <c r="F20">
+        <v>-0.0005280541865521529</v>
+      </c>
+      <c r="G20">
+        <v>-0.02888277340735486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02210879165739841</v>
+        <v>-0.01741946958528713</v>
       </c>
       <c r="C21">
-        <v>0.05606178563604924</v>
+        <v>0.04645848318078442</v>
       </c>
       <c r="D21">
-        <v>-0.03897883559027505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.08382312285844697</v>
+      </c>
+      <c r="E21">
+        <v>0.1522077785736727</v>
+      </c>
+      <c r="F21">
+        <v>0.02268100097099935</v>
+      </c>
+      <c r="G21">
+        <v>-0.06840837246465063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0002956196652965889</v>
+        <v>-0.005363081977754131</v>
       </c>
       <c r="C22">
-        <v>0.0127701844876209</v>
+        <v>0.02996059959403967</v>
       </c>
       <c r="D22">
-        <v>-0.02722678206342529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06825644170108318</v>
+      </c>
+      <c r="E22">
+        <v>0.07609915744056911</v>
+      </c>
+      <c r="F22">
+        <v>-0.06478722445894554</v>
+      </c>
+      <c r="G22">
+        <v>0.03123953395990345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.000302574392777637</v>
+        <v>-0.005482740165830464</v>
       </c>
       <c r="C23">
-        <v>0.01277231010578787</v>
+        <v>0.03001534344324995</v>
       </c>
       <c r="D23">
-        <v>-0.0271830204396041</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06758828536553278</v>
+      </c>
+      <c r="E23">
+        <v>0.07625610938775658</v>
+      </c>
+      <c r="F23">
+        <v>-0.06472138408848761</v>
+      </c>
+      <c r="G23">
+        <v>0.03049953139675605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.04101351514395719</v>
+        <v>-0.0386615260337311</v>
       </c>
       <c r="C24">
-        <v>0.04875605482298497</v>
+        <v>0.05266022937222866</v>
       </c>
       <c r="D24">
-        <v>-0.02325727871184554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.04280899385612272</v>
+      </c>
+      <c r="E24">
+        <v>0.05747373698835765</v>
+      </c>
+      <c r="F24">
+        <v>0.005134404188166511</v>
+      </c>
+      <c r="G24">
+        <v>-0.05518037286513385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05144797911105058</v>
+        <v>-0.04509929755791078</v>
       </c>
       <c r="C25">
-        <v>0.05343183622639719</v>
+        <v>0.05302871359270896</v>
       </c>
       <c r="D25">
-        <v>-0.01758939715801567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0393843510903157</v>
+      </c>
+      <c r="E25">
+        <v>0.04998184246361837</v>
+      </c>
+      <c r="F25">
+        <v>-0.01194238536798808</v>
+      </c>
+      <c r="G25">
+        <v>-0.05698443417304822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02328260521634655</v>
+        <v>-0.01962460663357482</v>
       </c>
       <c r="C26">
-        <v>0.01405501120276782</v>
+        <v>0.01700448952349619</v>
       </c>
       <c r="D26">
-        <v>-0.02248093211617001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04371044109698636</v>
+      </c>
+      <c r="E26">
+        <v>0.06508952441190344</v>
+      </c>
+      <c r="F26">
+        <v>0.01515235418931268</v>
+      </c>
+      <c r="G26">
+        <v>-0.01767122462450886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09790721210294845</v>
+        <v>-0.1420273062966661</v>
       </c>
       <c r="C28">
-        <v>-0.2595138114783949</v>
+        <v>-0.2594019338295489</v>
       </c>
       <c r="D28">
-        <v>0.002244622057416741</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0207754956468518</v>
+      </c>
+      <c r="E28">
+        <v>0.06406451573006135</v>
+      </c>
+      <c r="F28">
+        <v>0.002905065329015978</v>
+      </c>
+      <c r="G28">
+        <v>-0.06988422417751698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01179055759062255</v>
+        <v>-0.008753194801913401</v>
       </c>
       <c r="C29">
-        <v>0.02689739603728339</v>
+        <v>0.02663205652796188</v>
       </c>
       <c r="D29">
-        <v>-0.005296538866436849</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.04126236752730277</v>
+      </c>
+      <c r="E29">
+        <v>0.08061308199218131</v>
+      </c>
+      <c r="F29">
+        <v>0.004248300699060652</v>
+      </c>
+      <c r="G29">
+        <v>-0.05210566139689295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04432551597400616</v>
+        <v>-0.04480720647009286</v>
       </c>
       <c r="C30">
-        <v>0.04468469572829765</v>
+        <v>0.0543159380494639</v>
       </c>
       <c r="D30">
-        <v>-0.097636825554033</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1285935369125948</v>
+      </c>
+      <c r="E30">
+        <v>0.1059368129440465</v>
+      </c>
+      <c r="F30">
+        <v>0.0008381062614267206</v>
+      </c>
+      <c r="G30">
+        <v>0.009882178342802491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06802881648747748</v>
+        <v>-0.06417171746425189</v>
       </c>
       <c r="C31">
-        <v>0.04694201621833074</v>
+        <v>0.06114903277194263</v>
       </c>
       <c r="D31">
-        <v>0.02352668585541869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.008002644573329408</v>
+      </c>
+      <c r="E31">
+        <v>0.08114592445475685</v>
+      </c>
+      <c r="F31">
+        <v>-0.0358270278168497</v>
+      </c>
+      <c r="G31">
+        <v>-0.04044499756327022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.000763930961934846</v>
+        <v>-0.006401806668955957</v>
       </c>
       <c r="C32">
-        <v>0.03457906196191974</v>
+        <v>0.03205759891169238</v>
       </c>
       <c r="D32">
-        <v>-0.04690807729320514</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06258372093176517</v>
+      </c>
+      <c r="E32">
+        <v>0.1046102617938976</v>
+      </c>
+      <c r="F32">
+        <v>0.03841009634193235</v>
+      </c>
+      <c r="G32">
+        <v>-0.07467573701857916</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03944351774488128</v>
+        <v>-0.03192788336083605</v>
       </c>
       <c r="C33">
-        <v>0.05574385783050873</v>
+        <v>0.05121100213280481</v>
       </c>
       <c r="D33">
-        <v>-0.06163752663432795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09680178306420162</v>
+      </c>
+      <c r="E33">
+        <v>0.1054704355007725</v>
+      </c>
+      <c r="F33">
+        <v>-0.0167785447399357</v>
+      </c>
+      <c r="G33">
+        <v>-0.04691377165095258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04515030149641408</v>
+        <v>-0.04030496844306247</v>
       </c>
       <c r="C34">
-        <v>0.06306121517694147</v>
+        <v>0.06206849046781175</v>
       </c>
       <c r="D34">
-        <v>-0.03634255188200226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04868752855623394</v>
+      </c>
+      <c r="E34">
+        <v>0.03852144979685708</v>
+      </c>
+      <c r="F34">
+        <v>0.0004035903156949988</v>
+      </c>
+      <c r="G34">
+        <v>-0.06066919383647459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-3.683048313992617e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0004500862271675207</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0003264214761876541</v>
+      </c>
+      <c r="E35">
+        <v>-0.0003141233037033336</v>
+      </c>
+      <c r="F35">
+        <v>0.0001244555583030808</v>
+      </c>
+      <c r="G35">
+        <v>8.427859073900689e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02298554256863996</v>
+        <v>-0.01892317338817875</v>
       </c>
       <c r="C36">
-        <v>0.0154383182583773</v>
+        <v>0.01395875008235097</v>
       </c>
       <c r="D36">
-        <v>-0.01398141487716737</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04470689094426187</v>
+      </c>
+      <c r="E36">
+        <v>0.07558176019388313</v>
+      </c>
+      <c r="F36">
+        <v>-0.000953911114015543</v>
+      </c>
+      <c r="G36">
+        <v>-0.03924889824860332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03348066884565308</v>
+        <v>-0.02505510199624047</v>
       </c>
       <c r="C38">
-        <v>0.03015501134676313</v>
+        <v>0.02459375135471514</v>
       </c>
       <c r="D38">
-        <v>0.002846809459631615</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03725310457093409</v>
+      </c>
+      <c r="E38">
+        <v>0.06477990493835414</v>
+      </c>
+      <c r="F38">
+        <v>-0.003599558700792355</v>
+      </c>
+      <c r="G38">
+        <v>0.00795973589913636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05354431389950937</v>
+        <v>-0.04605376078173739</v>
       </c>
       <c r="C39">
-        <v>0.05864730140122722</v>
+        <v>0.06137436000715005</v>
       </c>
       <c r="D39">
-        <v>-0.04185520567931074</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07374003552691036</v>
+      </c>
+      <c r="E39">
+        <v>0.06376226702133191</v>
+      </c>
+      <c r="F39">
+        <v>0.02141053920877052</v>
+      </c>
+      <c r="G39">
+        <v>-0.0407873504890852</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01595062231613222</v>
+        <v>-0.01719282695286146</v>
       </c>
       <c r="C40">
-        <v>0.05718836812855827</v>
+        <v>0.04180552231622275</v>
       </c>
       <c r="D40">
-        <v>-0.0147831000623608</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04985798065990374</v>
+      </c>
+      <c r="E40">
+        <v>0.1157146135574876</v>
+      </c>
+      <c r="F40">
+        <v>-0.02705672621449969</v>
+      </c>
+      <c r="G40">
+        <v>-0.03345309698893911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02734626660477192</v>
+        <v>-0.02214249083253062</v>
       </c>
       <c r="C41">
-        <v>0.01171489221911797</v>
+        <v>0.01019241147011107</v>
       </c>
       <c r="D41">
-        <v>-0.01090862217392697</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02972642392986529</v>
+      </c>
+      <c r="E41">
+        <v>0.07551850702843596</v>
+      </c>
+      <c r="F41">
+        <v>0.001582707758646932</v>
+      </c>
+      <c r="G41">
+        <v>-0.02786591564207814</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04938683589219251</v>
+        <v>-0.03395924226450645</v>
       </c>
       <c r="C43">
-        <v>0.03372804466990188</v>
+        <v>0.02430680720954283</v>
       </c>
       <c r="D43">
-        <v>-0.02655371764219946</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05859536930340857</v>
+      </c>
+      <c r="E43">
+        <v>0.08563494501268304</v>
+      </c>
+      <c r="F43">
+        <v>-0.02064416345922583</v>
+      </c>
+      <c r="G43">
+        <v>-0.04374201919610015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02071664002469637</v>
+        <v>-0.02125317087895395</v>
       </c>
       <c r="C44">
-        <v>0.06579821572769433</v>
+        <v>0.04748538194727667</v>
       </c>
       <c r="D44">
-        <v>-0.005407788642975594</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0507673456811698</v>
+      </c>
+      <c r="E44">
+        <v>0.1079863349693296</v>
+      </c>
+      <c r="F44">
+        <v>0.01172842257910746</v>
+      </c>
+      <c r="G44">
+        <v>-0.02981849090248974</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01744674011599578</v>
+        <v>-0.01530959575164876</v>
       </c>
       <c r="C46">
-        <v>0.02424426128672375</v>
+        <v>0.02924783149300988</v>
       </c>
       <c r="D46">
-        <v>-0.0007965278407300371</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03707997416835832</v>
+      </c>
+      <c r="E46">
+        <v>0.08915063705008403</v>
+      </c>
+      <c r="F46">
+        <v>0.01893094895795817</v>
+      </c>
+      <c r="G46">
+        <v>-0.06747276224287677</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09680756159732404</v>
+        <v>-0.09635278878036731</v>
       </c>
       <c r="C47">
-        <v>0.06759613195981068</v>
+        <v>0.08022490055122529</v>
       </c>
       <c r="D47">
-        <v>0.0394047976981724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008332868043779348</v>
+      </c>
+      <c r="E47">
+        <v>0.06699036511467302</v>
+      </c>
+      <c r="F47">
+        <v>-0.01986111274400484</v>
+      </c>
+      <c r="G47">
+        <v>-0.06599733705383878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02550402817961652</v>
+        <v>-0.02113092567983172</v>
       </c>
       <c r="C48">
-        <v>0.01111290605112712</v>
+        <v>0.01524035641697046</v>
       </c>
       <c r="D48">
-        <v>0.007451033044147817</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.03187707621613094</v>
+      </c>
+      <c r="E48">
+        <v>0.09142244148675274</v>
+      </c>
+      <c r="F48">
+        <v>0.004772475104604689</v>
+      </c>
+      <c r="G48">
+        <v>-0.04704383905295709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08674034462305005</v>
+        <v>-0.07429159589498324</v>
       </c>
       <c r="C50">
-        <v>0.0880610377324804</v>
+        <v>0.07606235124321074</v>
       </c>
       <c r="D50">
-        <v>0.03827961166264668</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.009085256788847236</v>
+      </c>
+      <c r="E50">
+        <v>0.08512498493858937</v>
+      </c>
+      <c r="F50">
+        <v>-0.05207256861106774</v>
+      </c>
+      <c r="G50">
+        <v>-0.02027147496495916</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01886025699594292</v>
+        <v>-0.01413735702752188</v>
       </c>
       <c r="C51">
-        <v>0.04709267531244029</v>
+        <v>0.02890053504739646</v>
       </c>
       <c r="D51">
-        <v>-0.06586849221286292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07845234124444429</v>
+      </c>
+      <c r="E51">
+        <v>0.07306014961579661</v>
+      </c>
+      <c r="F51">
+        <v>0.01339031804924932</v>
+      </c>
+      <c r="G51">
+        <v>-0.01746816235883559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08869750652742155</v>
+        <v>-0.101674042304871</v>
       </c>
       <c r="C53">
-        <v>0.08089530454270548</v>
+        <v>0.0880628262034521</v>
       </c>
       <c r="D53">
-        <v>0.06135629704499278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04726598727695203</v>
+      </c>
+      <c r="E53">
+        <v>0.08502431716299465</v>
+      </c>
+      <c r="F53">
+        <v>-0.01604103612253819</v>
+      </c>
+      <c r="G53">
+        <v>-0.07168138229467268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04213083179618237</v>
+        <v>-0.03293663828108412</v>
       </c>
       <c r="C54">
-        <v>0.03233808068100168</v>
+        <v>0.03141649986129291</v>
       </c>
       <c r="D54">
-        <v>-0.02047508992847297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0506333230163136</v>
+      </c>
+      <c r="E54">
+        <v>0.08261393633755157</v>
+      </c>
+      <c r="F54">
+        <v>0.007808374184985427</v>
+      </c>
+      <c r="G54">
+        <v>-0.0501384707154214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08551004827035569</v>
+        <v>-0.09341186641562843</v>
       </c>
       <c r="C55">
-        <v>0.05448171464396363</v>
+        <v>0.06781684074495074</v>
       </c>
       <c r="D55">
-        <v>0.06035841312620307</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04746952728088814</v>
+      </c>
+      <c r="E55">
+        <v>0.05488740111588904</v>
+      </c>
+      <c r="F55">
+        <v>-0.02735638129817256</v>
+      </c>
+      <c r="G55">
+        <v>-0.03446893021191887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1486171894754915</v>
+        <v>-0.1529613956444056</v>
       </c>
       <c r="C56">
-        <v>0.08483042969541936</v>
+        <v>0.1036725041883483</v>
       </c>
       <c r="D56">
-        <v>0.06486208617588557</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05495917266716899</v>
+      </c>
+      <c r="E56">
+        <v>0.04644290306611257</v>
+      </c>
+      <c r="F56">
+        <v>-0.02351493196322282</v>
+      </c>
+      <c r="G56">
+        <v>-0.04217509993080575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05290940147637166</v>
+        <v>-0.04043590074835936</v>
       </c>
       <c r="C58">
-        <v>0.006967099949347116</v>
+        <v>0.01682435915620802</v>
       </c>
       <c r="D58">
-        <v>-0.198881316047171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2732985340718403</v>
+      </c>
+      <c r="E58">
+        <v>0.3536093204488764</v>
+      </c>
+      <c r="F58">
+        <v>-0.1667004549708738</v>
+      </c>
+      <c r="G58">
+        <v>0.5358527339226107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1266184792229365</v>
+        <v>-0.144116341392805</v>
       </c>
       <c r="C59">
-        <v>-0.2059370175493813</v>
+        <v>-0.1931512761358802</v>
       </c>
       <c r="D59">
-        <v>-0.04021639461280448</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0385708074313237</v>
+      </c>
+      <c r="E59">
+        <v>0.02979179397807127</v>
+      </c>
+      <c r="F59">
+        <v>0.02642648977339455</v>
+      </c>
+      <c r="G59">
+        <v>0.01772321772728226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.284677355641717</v>
+        <v>-0.2605898306171728</v>
       </c>
       <c r="C60">
-        <v>0.1088764577939274</v>
+        <v>0.09710014300804609</v>
       </c>
       <c r="D60">
-        <v>-0.2491401768262399</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2301740464718024</v>
+      </c>
+      <c r="E60">
+        <v>-0.2713061235629599</v>
+      </c>
+      <c r="F60">
+        <v>-0.1014390497702029</v>
+      </c>
+      <c r="G60">
+        <v>-0.01368440043917635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.05241194099098371</v>
+        <v>-0.04735951966845538</v>
       </c>
       <c r="C61">
-        <v>0.05284087809612472</v>
+        <v>0.05507706919420684</v>
       </c>
       <c r="D61">
-        <v>-0.03857761495731491</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.06083973290499546</v>
+      </c>
+      <c r="E61">
+        <v>0.06296803822463147</v>
+      </c>
+      <c r="F61">
+        <v>0.001077908412739735</v>
+      </c>
+      <c r="G61">
+        <v>-0.05672675456810473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01929689567611994</v>
+        <v>-0.0188536321331404</v>
       </c>
       <c r="C63">
-        <v>0.03313392625686828</v>
+        <v>0.03047685420546488</v>
       </c>
       <c r="D63">
-        <v>0.005420209284487743</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03600430048970693</v>
+      </c>
+      <c r="E63">
+        <v>0.08397854984158866</v>
+      </c>
+      <c r="F63">
+        <v>-0.02189747580719385</v>
+      </c>
+      <c r="G63">
+        <v>-0.02403503557566493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05542729745003724</v>
+        <v>-0.05911029405486052</v>
       </c>
       <c r="C64">
-        <v>0.04651444609036792</v>
+        <v>0.06027074220136405</v>
       </c>
       <c r="D64">
-        <v>-0.01682309844774709</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0236355978956716</v>
+      </c>
+      <c r="E64">
+        <v>0.05700454548203523</v>
+      </c>
+      <c r="F64">
+        <v>0.01382194357056749</v>
+      </c>
+      <c r="G64">
+        <v>-0.07819369651470141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07682661286656191</v>
+        <v>-0.06375788241138855</v>
       </c>
       <c r="C65">
-        <v>0.02561827558637984</v>
+        <v>0.02527050218800697</v>
       </c>
       <c r="D65">
-        <v>-0.0572135200867007</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0969075718320965</v>
+      </c>
+      <c r="E65">
+        <v>0.06270133631815047</v>
+      </c>
+      <c r="F65">
+        <v>-0.03091156126807834</v>
+      </c>
+      <c r="G65">
+        <v>0.04686517944192096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06450119718504177</v>
+        <v>-0.05678920861709229</v>
       </c>
       <c r="C66">
-        <v>0.07620131683031341</v>
+        <v>0.07556891136190792</v>
       </c>
       <c r="D66">
-        <v>-0.0604750211153871</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09644350320034041</v>
+      </c>
+      <c r="E66">
+        <v>0.07717793486728455</v>
+      </c>
+      <c r="F66">
+        <v>0.00175075612634743</v>
+      </c>
+      <c r="G66">
+        <v>-0.03341553669229664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05377091745699881</v>
+        <v>-0.04433159748045761</v>
       </c>
       <c r="C67">
-        <v>0.02992095735759597</v>
+        <v>0.02781681814522491</v>
       </c>
       <c r="D67">
-        <v>0.01397603493837672</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01462073824973674</v>
+      </c>
+      <c r="E67">
+        <v>0.03446227995383354</v>
+      </c>
+      <c r="F67">
+        <v>-0.004711936609960271</v>
+      </c>
+      <c r="G67">
+        <v>0.002321589947489506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1316150857445443</v>
+        <v>-0.1515807794129265</v>
       </c>
       <c r="C68">
-        <v>-0.2850128829333657</v>
+        <v>-0.2428168533864823</v>
       </c>
       <c r="D68">
-        <v>0.004381372113375381</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004896903856272729</v>
+      </c>
+      <c r="E68">
+        <v>0.05110998465186651</v>
+      </c>
+      <c r="F68">
+        <v>-0.007370620466397772</v>
+      </c>
+      <c r="G68">
+        <v>0.005515663567522901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09667015273685679</v>
+        <v>-0.09137368478249525</v>
       </c>
       <c r="C69">
-        <v>0.0761241782992982</v>
+        <v>0.0899223778855079</v>
       </c>
       <c r="D69">
-        <v>0.03268083252696698</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.004717533263690015</v>
+      </c>
+      <c r="E69">
+        <v>0.06875699824677023</v>
+      </c>
+      <c r="F69">
+        <v>0.007424439400706877</v>
+      </c>
+      <c r="G69">
+        <v>-0.07408076841856488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1181720071593237</v>
+        <v>-0.1450497964118387</v>
       </c>
       <c r="C71">
-        <v>-0.2543638015627475</v>
+        <v>-0.240556773016102</v>
       </c>
       <c r="D71">
-        <v>-0.01974996249049445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01420607410643509</v>
+      </c>
+      <c r="E71">
+        <v>0.06813048812937421</v>
+      </c>
+      <c r="F71">
+        <v>-0.02943498246592164</v>
+      </c>
+      <c r="G71">
+        <v>-0.04605852852480343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1028925716135865</v>
+        <v>-0.1073713781806628</v>
       </c>
       <c r="C72">
-        <v>0.05197505626313875</v>
+        <v>0.05132045664072148</v>
       </c>
       <c r="D72">
-        <v>-0.02804757493251472</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05891292446059175</v>
+      </c>
+      <c r="E72">
+        <v>0.03841313255930466</v>
+      </c>
+      <c r="F72">
+        <v>-0.03558071476412602</v>
+      </c>
+      <c r="G72">
+        <v>-0.06338841306978293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3566480551701829</v>
+        <v>-0.3094585116484827</v>
       </c>
       <c r="C73">
-        <v>0.06779867923699066</v>
+        <v>0.07057701456789581</v>
       </c>
       <c r="D73">
-        <v>-0.5226791969545659</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4473323917699817</v>
+      </c>
+      <c r="E73">
+        <v>-0.5366091824629361</v>
+      </c>
+      <c r="F73">
+        <v>-0.1824519233521429</v>
+      </c>
+      <c r="G73">
+        <v>0.06025731422450288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1058255066094474</v>
+        <v>-0.1108488646684455</v>
       </c>
       <c r="C74">
-        <v>0.08938653139267558</v>
+        <v>0.08916141576111999</v>
       </c>
       <c r="D74">
-        <v>0.04570691755342235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03971294087824377</v>
+      </c>
+      <c r="E74">
+        <v>0.0653114234673671</v>
+      </c>
+      <c r="F74">
+        <v>-0.0342610014643672</v>
+      </c>
+      <c r="G74">
+        <v>-0.02697123102782897</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.251243770399437</v>
+        <v>-0.2554811047733313</v>
       </c>
       <c r="C75">
-        <v>0.09194387562935245</v>
+        <v>0.1234435879878588</v>
       </c>
       <c r="D75">
-        <v>0.1710410517112404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1624591594121723</v>
+      </c>
+      <c r="E75">
+        <v>0.0206079915350682</v>
+      </c>
+      <c r="F75">
+        <v>-0.02074017977960958</v>
+      </c>
+      <c r="G75">
+        <v>0.007054230503893328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1177595429095221</v>
+        <v>-0.1309397498108075</v>
       </c>
       <c r="C76">
-        <v>0.07868854615126104</v>
+        <v>0.08966519106673594</v>
       </c>
       <c r="D76">
-        <v>0.08547417026171876</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07143169652395032</v>
+      </c>
+      <c r="E76">
+        <v>0.09279625696142269</v>
+      </c>
+      <c r="F76">
+        <v>-0.004205427864530943</v>
+      </c>
+      <c r="G76">
+        <v>-0.03912181001808131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08515202827718978</v>
+        <v>-0.06859604267414066</v>
       </c>
       <c r="C77">
-        <v>0.03505677474497536</v>
+        <v>0.05886493127686351</v>
       </c>
       <c r="D77">
-        <v>-0.06181681582249066</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.09002006189189249</v>
+      </c>
+      <c r="E77">
+        <v>0.1183093981380335</v>
+      </c>
+      <c r="F77">
+        <v>0.2060890878903514</v>
+      </c>
+      <c r="G77">
+        <v>0.1314185988580478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04699532583845802</v>
+        <v>-0.04802999926587767</v>
       </c>
       <c r="C78">
-        <v>0.04558483824314426</v>
+        <v>0.0545915000435985</v>
       </c>
       <c r="D78">
-        <v>-0.0562117173632343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08835354964158669</v>
+      </c>
+      <c r="E78">
+        <v>0.07992060402406982</v>
+      </c>
+      <c r="F78">
+        <v>-0.002457034728043702</v>
+      </c>
+      <c r="G78">
+        <v>-0.04417826427684228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.001365151693256553</v>
+        <v>-0.03730606701067346</v>
       </c>
       <c r="C79">
-        <v>0.0001216434075711028</v>
+        <v>0.05176279678542479</v>
       </c>
       <c r="D79">
-        <v>-0.006181492166426497</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08778226052667697</v>
+      </c>
+      <c r="E79">
+        <v>0.08390544022845474</v>
+      </c>
+      <c r="F79">
+        <v>-0.03268773228873168</v>
+      </c>
+      <c r="G79">
+        <v>-0.227340238751977</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03912651970693898</v>
+        <v>-0.03120843028364571</v>
       </c>
       <c r="C80">
-        <v>0.04177617446812329</v>
+        <v>0.04610598362767398</v>
       </c>
       <c r="D80">
-        <v>-0.03459662067540303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04351390384483864</v>
+      </c>
+      <c r="E80">
+        <v>0.01644545664869432</v>
+      </c>
+      <c r="F80">
+        <v>0.0521661872735082</v>
+      </c>
+      <c r="G80">
+        <v>0.004297177783277859</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1494622333388742</v>
+        <v>-0.1443837860467869</v>
       </c>
       <c r="C81">
-        <v>0.06905569712667119</v>
+        <v>0.09060781248487386</v>
       </c>
       <c r="D81">
-        <v>0.141565595250548</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1256194389666689</v>
+      </c>
+      <c r="E81">
+        <v>0.06527095973193019</v>
+      </c>
+      <c r="F81">
+        <v>-0.005366651649207899</v>
+      </c>
+      <c r="G81">
+        <v>-0.02309646994264086</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.22342201209672</v>
+        <v>-0.2417204844359524</v>
       </c>
       <c r="C82">
-        <v>0.100410515497794</v>
+        <v>0.1654793694512563</v>
       </c>
       <c r="D82">
-        <v>0.190876462185629</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2433810000922995</v>
+      </c>
+      <c r="E82">
+        <v>-0.06986240768393397</v>
+      </c>
+      <c r="F82">
+        <v>0.06497424031075565</v>
+      </c>
+      <c r="G82">
+        <v>-0.4034045984986943</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04429928445587101</v>
+        <v>-0.02986630550129431</v>
       </c>
       <c r="C83">
-        <v>0.0384012263855213</v>
+        <v>0.04773115985693494</v>
       </c>
       <c r="D83">
-        <v>-0.04962645261923159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0359829637539244</v>
+      </c>
+      <c r="E83">
+        <v>0.0290223634882819</v>
+      </c>
+      <c r="F83">
+        <v>0.02597885562470958</v>
+      </c>
+      <c r="G83">
+        <v>-0.00349965702215509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-1.435224201069952e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002164328129933291</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0003476318709051229</v>
+      </c>
+      <c r="E84">
+        <v>0.008920462948234715</v>
+      </c>
+      <c r="F84">
+        <v>-0.001923269836156823</v>
+      </c>
+      <c r="G84">
+        <v>0.007539259109235076</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2013296314122094</v>
+        <v>-0.1898909261686574</v>
       </c>
       <c r="C85">
-        <v>0.1016307342533795</v>
+        <v>0.113745720319285</v>
       </c>
       <c r="D85">
-        <v>0.1791292431231256</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1445647872906879</v>
+      </c>
+      <c r="E85">
+        <v>0.007237069713767406</v>
+      </c>
+      <c r="F85">
+        <v>-0.09037497998745536</v>
+      </c>
+      <c r="G85">
+        <v>-0.007002188202855733</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01411019768847328</v>
+        <v>-0.01724988915532009</v>
       </c>
       <c r="C86">
-        <v>0.02799675266815807</v>
+        <v>0.01703521917248013</v>
       </c>
       <c r="D86">
-        <v>-0.05871016013617607</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.08975859071774248</v>
+      </c>
+      <c r="E86">
+        <v>0.08881730584457681</v>
+      </c>
+      <c r="F86">
+        <v>0.01836481995646295</v>
+      </c>
+      <c r="G86">
+        <v>-0.05830914423485732</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03447743938729086</v>
+        <v>-0.03369047154612463</v>
       </c>
       <c r="C87">
-        <v>-0.001923063253525282</v>
+        <v>0.01355094921300989</v>
       </c>
       <c r="D87">
-        <v>-0.07716668609979498</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1060386800597757</v>
+      </c>
+      <c r="E87">
+        <v>0.135590948312291</v>
+      </c>
+      <c r="F87">
+        <v>0.04881540788975698</v>
+      </c>
+      <c r="G87">
+        <v>0.03185104598087535</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1148428512387538</v>
+        <v>-0.09700340085740002</v>
       </c>
       <c r="C88">
-        <v>0.08852762136224246</v>
+        <v>0.06958204434673985</v>
       </c>
       <c r="D88">
-        <v>0.004904114069181812</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02453251836771839</v>
+      </c>
+      <c r="E88">
+        <v>0.04167013226158441</v>
+      </c>
+      <c r="F88">
+        <v>0.01345999242458922</v>
+      </c>
+      <c r="G88">
+        <v>-0.03842442536839695</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1886819490249868</v>
+        <v>-0.2201928839348459</v>
       </c>
       <c r="C89">
-        <v>-0.3760027092449965</v>
+        <v>-0.3809695716580606</v>
       </c>
       <c r="D89">
-        <v>0.02285360616682149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.004247676453588172</v>
+      </c>
+      <c r="E89">
+        <v>0.07402702183209596</v>
+      </c>
+      <c r="F89">
+        <v>0.07004048977041066</v>
+      </c>
+      <c r="G89">
+        <v>-0.0208985140863797</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1799640184172585</v>
+        <v>-0.2002698864752511</v>
       </c>
       <c r="C90">
-        <v>-0.3334488075987355</v>
+        <v>-0.3093764549880501</v>
       </c>
       <c r="D90">
-        <v>0.02673828935558771</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.006934474561561824</v>
+      </c>
+      <c r="E90">
+        <v>0.05776895761796496</v>
+      </c>
+      <c r="F90">
+        <v>-0.0009007575308161257</v>
+      </c>
+      <c r="G90">
+        <v>0.006376765177759929</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1937659868419798</v>
+        <v>-0.1888743594829886</v>
       </c>
       <c r="C91">
-        <v>0.1257670454744197</v>
+        <v>0.1422324637278624</v>
       </c>
       <c r="D91">
-        <v>0.1467809952033536</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1292819785591807</v>
+      </c>
+      <c r="E91">
+        <v>0.05096245050392439</v>
+      </c>
+      <c r="F91">
+        <v>-0.004324836433155834</v>
+      </c>
+      <c r="G91">
+        <v>-0.01607795590058354</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1606586756526494</v>
+        <v>-0.1798685972119154</v>
       </c>
       <c r="C92">
-        <v>-0.2883787168877871</v>
+        <v>-0.2962878358611166</v>
       </c>
       <c r="D92">
-        <v>0.0154316094355949</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00460928916015885</v>
+      </c>
+      <c r="E92">
+        <v>0.08425348633497788</v>
+      </c>
+      <c r="F92">
+        <v>0.03442937101407714</v>
+      </c>
+      <c r="G92">
+        <v>-0.03594436905274356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.194196946238682</v>
+        <v>-0.2149690225716244</v>
       </c>
       <c r="C93">
-        <v>-0.3440442918122568</v>
+        <v>-0.3204514500495375</v>
       </c>
       <c r="D93">
-        <v>0.0367114100973586</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01705076572093341</v>
+      </c>
+      <c r="E93">
+        <v>0.03513722593687733</v>
+      </c>
+      <c r="F93">
+        <v>-0.02101932258557467</v>
+      </c>
+      <c r="G93">
+        <v>-0.03638213924598562</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3584076019717906</v>
+        <v>-0.3492131484228013</v>
       </c>
       <c r="C94">
-        <v>0.1271373699151857</v>
+        <v>0.1765891940620281</v>
       </c>
       <c r="D94">
-        <v>0.4713285760304796</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4384618057665333</v>
+      </c>
+      <c r="E94">
+        <v>-0.05788966766858997</v>
+      </c>
+      <c r="F94">
+        <v>0.1130726643954775</v>
+      </c>
+      <c r="G94">
+        <v>0.575781844993058</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1087128012101509</v>
+        <v>-0.08122785505857953</v>
       </c>
       <c r="C95">
-        <v>0.04183663511717296</v>
+        <v>0.05394369699064275</v>
       </c>
       <c r="D95">
-        <v>-0.3124153383787373</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2289693153620174</v>
+      </c>
+      <c r="E95">
+        <v>-0.09752925805670017</v>
+      </c>
+      <c r="F95">
+        <v>0.8932265212458897</v>
+      </c>
+      <c r="G95">
+        <v>0.03013380932002612</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1868415054716878</v>
+        <v>-0.1839169103433461</v>
       </c>
       <c r="C98">
-        <v>0.03352948910292766</v>
+        <v>0.04946301015836162</v>
       </c>
       <c r="D98">
-        <v>-0.2253318627932545</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2062133805753986</v>
+      </c>
+      <c r="E98">
+        <v>-0.181623600180476</v>
+      </c>
+      <c r="F98">
+        <v>-0.1262196304634952</v>
+      </c>
+      <c r="G98">
+        <v>-0.02602169773923925</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01163920435247796</v>
+        <v>-0.00882768359691756</v>
       </c>
       <c r="C101">
-        <v>0.02638181836516174</v>
+        <v>0.0258223776649042</v>
       </c>
       <c r="D101">
-        <v>-0.005313744882261154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.04117497227147555</v>
+      </c>
+      <c r="E101">
+        <v>0.08133694394411578</v>
+      </c>
+      <c r="F101">
+        <v>0.005185236422707153</v>
+      </c>
+      <c r="G101">
+        <v>-0.05246474798902411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1186563819429426</v>
+        <v>-0.1214912963679918</v>
       </c>
       <c r="C102">
-        <v>0.06532261091809732</v>
+        <v>0.09878699835017661</v>
       </c>
       <c r="D102">
-        <v>0.05937033124129899</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06143151837204587</v>
+      </c>
+      <c r="E102">
+        <v>-0.002117224190766561</v>
+      </c>
+      <c r="F102">
+        <v>0.02969135861505228</v>
+      </c>
+      <c r="G102">
+        <v>-0.04845859462325773</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
